--- a/halloween/office_costumes.xlsx
+++ b/halloween/office_costumes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryant\Documents\809projects\theoffice\halloween\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3F16C589-E3C5-4474-B446-8271C290CE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255974DC-1A71-4266-8C8C-3407890F796C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="office_costumes_raw" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="153">
   <si>
     <t>character</t>
   </si>
@@ -476,12 +476,15 @@
   </si>
   <si>
     <t>costume_detail</t>
+  </si>
+  <si>
+    <t>Electicity man</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1315,11 +1318,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2102,13 +2105,13 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="F43" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -2119,13 +2122,10 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
         <v>121</v>
@@ -2139,13 +2139,16 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>150</v>
+        <v>60</v>
+      </c>
+      <c r="E45" t="s">
+        <v>61</v>
       </c>
       <c r="F45" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -2156,16 +2159,13 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="F46" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -2176,33 +2176,33 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
-      </c>
-      <c r="E48" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="F48" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -2216,10 +2216,13 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>122</v>
+      </c>
+      <c r="E49" t="s">
+        <v>122</v>
       </c>
       <c r="F49" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -2230,10 +2233,10 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F50" t="s">
         <v>124</v>
@@ -2247,16 +2250,13 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2267,10 +2267,10 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s">
         <v>67</v>
@@ -2287,13 +2287,16 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E53" t="s">
+        <v>67</v>
       </c>
       <c r="F53" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -2304,16 +2307,13 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -2324,13 +2324,16 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D55" t="s">
-        <v>141</v>
+        <v>70</v>
+      </c>
+      <c r="E55" t="s">
+        <v>71</v>
       </c>
       <c r="F55" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -2341,13 +2344,13 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="F56" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -2358,13 +2361,13 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -2375,16 +2378,13 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E58" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="F58" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -2395,13 +2395,16 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>73</v>
+      </c>
+      <c r="E59" t="s">
+        <v>71</v>
       </c>
       <c r="F59" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -2415,10 +2418,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -2429,13 +2432,13 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -2446,13 +2449,13 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -2466,10 +2469,10 @@
         <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="F63" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -2480,13 +2483,13 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F64" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -2497,13 +2500,13 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F65" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -2517,10 +2520,10 @@
         <v>29</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -2531,13 +2534,13 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="F67" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
@@ -2548,13 +2551,13 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="F68" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
@@ -2565,13 +2568,13 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
@@ -2582,13 +2585,13 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="F70" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
@@ -2599,16 +2602,13 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
-      </c>
-      <c r="E71" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="F71" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
@@ -2619,13 +2619,13 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E72" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F72" t="s">
         <v>121</v>
@@ -2633,19 +2633,22 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="E73" t="s">
+        <v>67</v>
       </c>
       <c r="F73" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
@@ -2656,13 +2659,13 @@
         <v>5</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F74" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
@@ -2673,13 +2676,13 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F75" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
@@ -2690,10 +2693,10 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="F76" t="s">
         <v>129</v>
@@ -2707,13 +2710,13 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="F77" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
@@ -2724,10 +2727,10 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D78" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F78" t="s">
         <v>133</v>
@@ -2741,13 +2744,13 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F79" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
@@ -2758,13 +2761,13 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
@@ -2775,10 +2778,10 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F81" t="s">
         <v>118</v>
@@ -2792,10 +2795,10 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D82" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F82" t="s">
         <v>118</v>
@@ -2809,13 +2812,13 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F83" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
@@ -2826,16 +2829,13 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>92</v>
-      </c>
-      <c r="E84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
@@ -2846,13 +2846,13 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E85" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F85" t="s">
         <v>121</v>
@@ -2866,13 +2866,16 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D86" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="E86" t="s">
+        <v>95</v>
       </c>
       <c r="F86" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
@@ -2883,7 +2886,7 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D87" t="s">
         <v>96</v>
@@ -2900,7 +2903,7 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
         <v>96</v>
@@ -2917,33 +2920,33 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="D89" t="s">
-        <v>127</v>
-      </c>
-      <c r="E89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F89" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>98</v>
+        <v>127</v>
+      </c>
+      <c r="E90" t="s">
+        <v>97</v>
       </c>
       <c r="F90" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
@@ -2954,16 +2957,13 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D91" t="s">
-        <v>99</v>
-      </c>
-      <c r="E91" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F91" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
@@ -2974,13 +2974,16 @@
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D92" t="s">
-        <v>130</v>
+        <v>99</v>
+      </c>
+      <c r="E92" t="s">
+        <v>100</v>
       </c>
       <c r="F92" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
@@ -2994,10 +2997,10 @@
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F93" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
@@ -3008,13 +3011,13 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="F94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
@@ -3025,10 +3028,10 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D95" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="F95" t="s">
         <v>129</v>
@@ -3045,10 +3048,10 @@
         <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F96" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
@@ -3059,13 +3062,13 @@
         <v>5</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F97" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
@@ -3076,13 +3079,13 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="F98" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
@@ -3093,13 +3096,13 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
@@ -3110,10 +3113,10 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F100" t="s">
         <v>118</v>
@@ -3127,16 +3130,13 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>106</v>
-      </c>
-      <c r="E101" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F101" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
@@ -3147,13 +3147,16 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D102" t="s">
-        <v>42</v>
+        <v>106</v>
+      </c>
+      <c r="E102" t="s">
+        <v>123</v>
       </c>
       <c r="F102" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
@@ -3164,10 +3167,10 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="F103" t="s">
         <v>133</v>
@@ -3181,13 +3184,13 @@
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="F104" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
@@ -3198,10 +3201,10 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="D105" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="F105" t="s">
         <v>124</v>
@@ -3215,12 +3218,29 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" t="s">
+        <v>138</v>
+      </c>
+      <c r="F106" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>9</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
         <v>64</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>149</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F107" t="s">
         <v>132</v>
       </c>
     </row>

--- a/halloween/office_costumes.xlsx
+++ b/halloween/office_costumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryant\Documents\809projects\theoffice\halloween\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255974DC-1A71-4266-8C8C-3407890F796C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D037439-08F7-41FC-BD5F-1AC59E22E011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="154">
   <si>
     <t>character</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Lady Gaga</t>
   </si>
   <si>
-    <t>Todd Packer</t>
-  </si>
-  <si>
     <t>Bob Vance</t>
   </si>
   <si>
@@ -479,6 +476,12 @@
   </si>
   <si>
     <t>Electicity man</t>
+  </si>
+  <si>
+    <t>Todd</t>
+  </si>
+  <si>
+    <t>Zombie</t>
   </si>
 </sst>
 </file>
@@ -1319,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1334,22 +1337,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" t="s">
-        <v>111</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -1366,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1383,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1400,7 +1403,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1417,7 +1420,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1434,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1454,7 +1457,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1474,7 +1477,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1491,7 +1494,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1505,10 +1508,10 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1525,7 +1528,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1542,7 +1545,7 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1559,7 +1562,7 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1579,7 +1582,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1590,13 +1593,13 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1607,13 +1610,13 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1624,30 +1627,30 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1655,33 +1658,33 @@
         <v>3</v>
       </c>
       <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>140</v>
-      </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1692,16 +1695,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1712,16 +1712,16 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1732,7 +1732,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -1741,7 +1741,7 @@
         <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1752,7 +1752,7 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -1761,7 +1761,7 @@
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1772,16 +1772,16 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1792,16 +1792,16 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1812,13 +1812,16 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1829,13 +1832,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1846,16 +1849,13 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1866,16 +1866,16 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -1886,13 +1886,16 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -1903,30 +1906,30 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -1937,13 +1940,13 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1954,16 +1957,13 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -1974,13 +1974,16 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -1991,13 +1994,13 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -2008,16 +2011,13 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -2028,16 +2028,16 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -2048,13 +2048,16 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -2065,16 +2068,13 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -2085,16 +2085,16 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -2105,13 +2105,16 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>152</v>
+        <v>58</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -2122,13 +2125,13 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="F44" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -2139,16 +2142,13 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -2159,13 +2159,16 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>150</v>
+        <v>60</v>
+      </c>
+      <c r="E46" t="s">
+        <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -2176,16 +2179,13 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
-      </c>
-      <c r="E47" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="F47" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
@@ -2196,33 +2196,33 @@
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="E48" t="s">
+        <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="F49" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -2236,10 +2236,13 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>121</v>
+      </c>
+      <c r="E50" t="s">
+        <v>121</v>
       </c>
       <c r="F50" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -2250,13 +2253,13 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2267,16 +2270,13 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -2287,16 +2287,16 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
         <v>67</v>
       </c>
       <c r="F53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -2307,13 +2307,16 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E54" t="s">
+        <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -2324,16 +2327,13 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
@@ -2344,13 +2344,16 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D56" t="s">
-        <v>141</v>
+        <v>70</v>
+      </c>
+      <c r="E56" t="s">
+        <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -2361,13 +2364,13 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -2378,13 +2381,13 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="F58" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
@@ -2395,16 +2398,13 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
-      </c>
-      <c r="E59" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="F59" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -2415,13 +2415,16 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>115</v>
+        <v>73</v>
+      </c>
+      <c r="E60" t="s">
+        <v>71</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -2435,10 +2438,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
@@ -2449,13 +2452,13 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
@@ -2466,13 +2469,13 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -2486,10 +2489,10 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="F64" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -2500,13 +2503,13 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F65" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -2517,13 +2520,13 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F66" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -2551,13 +2554,13 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="F68" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
@@ -2568,13 +2571,13 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
@@ -2585,13 +2588,13 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F70" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
@@ -2602,13 +2605,13 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="F71" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
@@ -2619,16 +2622,13 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="D72" t="s">
-        <v>79</v>
-      </c>
-      <c r="E72" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="F72" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
@@ -2639,33 +2639,36 @@
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D73" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="E74" t="s">
+        <v>67</v>
       </c>
       <c r="F74" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
@@ -2676,13 +2679,13 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F75" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
@@ -2693,13 +2696,13 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F76" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
@@ -2710,13 +2713,13 @@
         <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
@@ -2727,13 +2730,13 @@
         <v>5</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
@@ -2744,13 +2747,13 @@
         <v>5</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
@@ -2761,13 +2764,13 @@
         <v>5</v>
       </c>
       <c r="C80" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="D80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F80" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
@@ -2778,13 +2781,13 @@
         <v>5</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F81" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
@@ -2795,13 +2798,13 @@
         <v>5</v>
       </c>
       <c r="C82" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F82" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
@@ -2812,13 +2815,13 @@
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
@@ -2829,13 +2832,13 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F84" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
@@ -2846,16 +2849,13 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>92</v>
-      </c>
-      <c r="E85" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F85" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
@@ -2866,16 +2866,16 @@
         <v>5</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D86" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E86" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
@@ -2886,13 +2886,16 @@
         <v>5</v>
       </c>
       <c r="C87" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D87" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="E87" t="s">
+        <v>94</v>
       </c>
       <c r="F87" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
@@ -2903,13 +2906,13 @@
         <v>5</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
@@ -2920,13 +2923,13 @@
         <v>5</v>
       </c>
       <c r="C89" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
@@ -2937,33 +2940,33 @@
         <v>5</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="D90" t="s">
+        <v>95</v>
+      </c>
+      <c r="F90" t="s">
         <v>127</v>
-      </c>
-      <c r="E90" t="s">
-        <v>97</v>
-      </c>
-      <c r="F90" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B91">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>126</v>
+      </c>
+      <c r="E91" t="s">
+        <v>96</v>
       </c>
       <c r="F91" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
@@ -2974,16 +2977,13 @@
         <v>5</v>
       </c>
       <c r="C92" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
-      </c>
-      <c r="E92" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F92" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
@@ -2994,13 +2994,16 @@
         <v>5</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="D93" t="s">
-        <v>130</v>
+        <v>98</v>
+      </c>
+      <c r="E93" t="s">
+        <v>99</v>
       </c>
       <c r="F93" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
@@ -3014,7 +3017,7 @@
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F94" t="s">
         <v>128</v>
@@ -3028,13 +3031,13 @@
         <v>5</v>
       </c>
       <c r="C95" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="F95" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
@@ -3045,13 +3048,13 @@
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D96" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
@@ -3068,7 +3071,7 @@
         <v>125</v>
       </c>
       <c r="F97" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
@@ -3079,13 +3082,13 @@
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F98" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
@@ -3096,13 +3099,13 @@
         <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
@@ -3113,13 +3116,13 @@
         <v>5</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F100" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
@@ -3130,13 +3133,13 @@
         <v>5</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="D101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
@@ -3147,16 +3150,13 @@
         <v>5</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D102" t="s">
-        <v>106</v>
-      </c>
-      <c r="E102" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="F102" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
@@ -3167,13 +3167,16 @@
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D103" t="s">
-        <v>42</v>
+        <v>105</v>
+      </c>
+      <c r="E103" t="s">
+        <v>122</v>
       </c>
       <c r="F103" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
@@ -3184,13 +3187,13 @@
         <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
@@ -3201,13 +3204,13 @@
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="D105" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="F105" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
@@ -3218,13 +3221,13 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="D106" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="F106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
@@ -3235,13 +3238,30 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" t="s">
+        <v>137</v>
+      </c>
+      <c r="F107" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>9</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
         <v>64</v>
       </c>
-      <c r="D107" t="s">
-        <v>149</v>
-      </c>
-      <c r="F107" t="s">
-        <v>132</v>
+      <c r="D108" t="s">
+        <v>148</v>
+      </c>
+      <c r="F108" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/halloween/office_costumes.xlsx
+++ b/halloween/office_costumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryant\Documents\809projects\theoffice\halloween\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D037439-08F7-41FC-BD5F-1AC59E22E011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555F2411-36C7-4C73-8696-EE7F83882AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="153">
   <si>
     <t>character</t>
   </si>
@@ -377,9 +377,6 @@
   </si>
   <si>
     <t>Performer</t>
-  </si>
-  <si>
-    <t>Athlete</t>
   </si>
   <si>
     <t>Fictional character</t>
@@ -1324,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1346,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1420,7 +1417,7 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1437,7 +1434,7 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1457,7 +1454,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1477,7 +1474,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1494,7 +1491,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1511,7 +1508,7 @@
         <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1528,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1545,7 +1542,7 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1562,7 +1559,7 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1582,7 +1579,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1596,10 +1593,10 @@
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1633,7 +1630,7 @@
         <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1650,7 +1647,7 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1667,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -1678,13 +1675,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -1721,7 +1718,7 @@
         <v>108</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1741,7 +1738,7 @@
         <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1761,7 +1758,7 @@
         <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1781,7 +1778,7 @@
         <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1801,7 +1798,7 @@
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1821,7 +1818,7 @@
         <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1838,7 +1835,7 @@
         <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1855,7 +1852,7 @@
         <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1875,7 +1872,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -1895,7 +1892,7 @@
         <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -1912,7 +1909,7 @@
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -1926,10 +1923,10 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -1943,10 +1940,10 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -1963,7 +1960,7 @@
         <v>46</v>
       </c>
       <c r="F35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -1983,7 +1980,7 @@
         <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -2000,7 +1997,7 @@
         <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -2037,7 +2034,7 @@
         <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -2057,7 +2054,7 @@
         <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -2074,7 +2071,7 @@
         <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -2094,7 +2091,7 @@
         <v>57</v>
       </c>
       <c r="F42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -2114,7 +2111,7 @@
         <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -2128,10 +2125,10 @@
         <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -2148,7 +2145,7 @@
         <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
@@ -2168,7 +2165,7 @@
         <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
@@ -2182,7 +2179,7 @@
         <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F47" t="s">
         <v>118</v>
@@ -2205,7 +2202,7 @@
         <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
@@ -2222,7 +2219,7 @@
         <v>65</v>
       </c>
       <c r="F49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
@@ -2236,13 +2233,13 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
@@ -2259,7 +2256,7 @@
         <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
@@ -2276,7 +2273,7 @@
         <v>66</v>
       </c>
       <c r="F52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
@@ -2296,7 +2293,7 @@
         <v>67</v>
       </c>
       <c r="F53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
@@ -2316,7 +2313,7 @@
         <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
@@ -2353,7 +2350,7 @@
         <v>71</v>
       </c>
       <c r="F56" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
@@ -2367,10 +2364,10 @@
         <v>31</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
@@ -2401,10 +2398,10 @@
         <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F59" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
@@ -2424,7 +2421,7 @@
         <v>71</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
@@ -2472,10 +2469,10 @@
         <v>55</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
@@ -2489,10 +2486,10 @@
         <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
@@ -2509,7 +2506,7 @@
         <v>116</v>
       </c>
       <c r="F65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
@@ -2523,10 +2520,10 @@
         <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
@@ -2540,10 +2537,10 @@
         <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
@@ -2557,10 +2554,10 @@
         <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
@@ -2577,7 +2574,7 @@
         <v>28</v>
       </c>
       <c r="F69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
@@ -2622,13 +2619,13 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
@@ -2648,7 +2645,7 @@
         <v>78</v>
       </c>
       <c r="F73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
@@ -2668,7 +2665,7 @@
         <v>67</v>
       </c>
       <c r="F74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
@@ -2685,7 +2682,7 @@
         <v>81</v>
       </c>
       <c r="F75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
@@ -2702,7 +2699,7 @@
         <v>82</v>
       </c>
       <c r="F76" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
@@ -2719,7 +2716,7 @@
         <v>83</v>
       </c>
       <c r="F77" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
@@ -2736,7 +2733,7 @@
         <v>19</v>
       </c>
       <c r="F78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
@@ -2753,7 +2750,7 @@
         <v>84</v>
       </c>
       <c r="F79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
@@ -2770,7 +2767,7 @@
         <v>85</v>
       </c>
       <c r="F80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
@@ -2787,7 +2784,7 @@
         <v>86</v>
       </c>
       <c r="F81" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
@@ -2855,7 +2852,7 @@
         <v>90</v>
       </c>
       <c r="F85" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
@@ -2875,7 +2872,7 @@
         <v>92</v>
       </c>
       <c r="F86" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
@@ -2895,7 +2892,7 @@
         <v>94</v>
       </c>
       <c r="F87" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
@@ -2912,7 +2909,7 @@
         <v>95</v>
       </c>
       <c r="F88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
@@ -2929,7 +2926,7 @@
         <v>95</v>
       </c>
       <c r="F89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
@@ -2946,7 +2943,7 @@
         <v>95</v>
       </c>
       <c r="F90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
@@ -2960,13 +2957,13 @@
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E91" t="s">
         <v>96</v>
       </c>
       <c r="F91" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
@@ -3003,7 +3000,7 @@
         <v>99</v>
       </c>
       <c r="F93" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
@@ -3017,10 +3014,10 @@
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
@@ -3034,10 +3031,10 @@
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
@@ -3054,7 +3051,7 @@
         <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
@@ -3068,10 +3065,10 @@
         <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F97" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
@@ -3085,10 +3082,10 @@
         <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
@@ -3105,7 +3102,7 @@
         <v>101</v>
       </c>
       <c r="F99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
@@ -3119,10 +3116,10 @@
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F100" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
@@ -3173,10 +3170,10 @@
         <v>105</v>
       </c>
       <c r="E103" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
@@ -3193,7 +3190,7 @@
         <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
@@ -3207,10 +3204,10 @@
         <v>31</v>
       </c>
       <c r="D105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
@@ -3227,7 +3224,7 @@
         <v>107</v>
       </c>
       <c r="F106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
@@ -3241,10 +3238,10 @@
         <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
@@ -3258,10 +3255,10 @@
         <v>64</v>
       </c>
       <c r="D108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F108" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/halloween/office_costumes.xlsx
+++ b/halloween/office_costumes.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryant\Documents\809projects\theoffice\halloween\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555F2411-36C7-4C73-8696-EE7F83882AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7143A2-3800-4718-8EDC-DE19643BCCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8" yWindow="8" windowWidth="20505" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="office_costumes_raw" sheetId="1" r:id="rId1"/>
+    <sheet name="within_universe" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="157">
   <si>
     <t>character</t>
   </si>
@@ -479,6 +480,18 @@
   </si>
   <si>
     <t>Zombie</t>
+  </si>
+  <si>
+    <t>dressed_as</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>Jo</t>
   </si>
 </sst>
 </file>
@@ -1321,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3014,10 +3027,10 @@
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
@@ -3031,10 +3044,10 @@
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F95" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
@@ -3259,6 +3272,231 @@
       </c>
       <c r="F108" t="s">
         <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007048B6-1CD0-4ADC-9FDC-3A1B4139E3B2}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/halloween/office_costumes.xlsx
+++ b/halloween/office_costumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryant\Documents\809projects\theoffice\halloween\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7143A2-3800-4718-8EDC-DE19643BCCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C2E613-8F04-4536-ACD8-093A7BFCF837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8" yWindow="8" windowWidth="20505" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="158">
   <si>
     <t>character</t>
   </si>
@@ -492,6 +492,9 @@
   </si>
   <si>
     <t>Jo</t>
+  </si>
+  <si>
+    <t>a Black Widow</t>
   </si>
 </sst>
 </file>
@@ -1334,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2007,7 +2010,7 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="F37" t="s">
         <v>127</v>
